--- a/DSPhongHat.xlsx
+++ b/DSPhongHat.xlsx
@@ -41,22 +41,22 @@
     <t/>
   </si>
   <si>
+    <t>Trong</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V002 </t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>V003</t>
+  </si>
+  <si>
     <t>Dang su dung</t>
-  </si>
-  <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V002 </t>
-  </si>
-  <si>
-    <t>Trong</t>
-  </si>
-  <si>
-    <t>P003</t>
-  </si>
-  <si>
-    <t>V003</t>
   </si>
   <si>
     <t>P004</t>
@@ -380,24 +380,24 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -414,7 +414,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -431,7 +431,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -465,7 +465,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -516,7 +516,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -584,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -601,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -635,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -652,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -669,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -686,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -737,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -771,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -805,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -822,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -839,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -856,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -873,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -890,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -907,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -924,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -941,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -958,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1009,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1026,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DSPhongHat.xlsx
+++ b/DSPhongHat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="89">
   <si>
     <t>Mã phòng</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>V003</t>
-  </si>
-  <si>
-    <t>Dang su dung</t>
   </si>
   <si>
     <t>P004</t>
@@ -397,35 +394,35 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -436,47 +433,47 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -487,30 +484,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -521,13 +518,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -538,13 +535,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -555,13 +552,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -572,13 +569,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -589,13 +586,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -606,13 +603,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -623,13 +620,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -640,13 +637,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -657,10 +654,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -674,10 +671,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -691,10 +688,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -708,13 +705,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -725,13 +722,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -742,13 +739,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -759,13 +756,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -776,13 +773,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -793,13 +790,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -810,10 +807,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -827,10 +824,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -844,10 +841,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -861,13 +858,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -878,13 +875,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
         <v>72</v>
       </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -895,13 +892,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -912,10 +909,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -929,10 +926,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -946,10 +943,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -963,13 +960,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -980,13 +977,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -997,13 +994,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
         <v>86</v>
       </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -1014,13 +1011,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
